--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43181,6 +43181,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,43 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43290,6 +43290,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>306000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43360,6 +43360,41 @@
         <v>306000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>68000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43430,6 +43430,41 @@
         <v>68000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>98700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43465,6 +43465,41 @@
         <v>98700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43500,6 +43500,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43537,6 +43537,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43572,6 +43572,41 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>24900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43607,6 +43607,76 @@
         <v>24900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>68400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43677,6 +43677,76 @@
         <v>68400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>209300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>50100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43747,6 +43747,41 @@
         <v>50100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>17400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43782,6 +43782,43 @@
         <v>17400</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43819,6 +43819,41 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43854,6 +43854,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>60700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43889,6 +43889,76 @@
         <v>60700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>111700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43959,6 +43959,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43994,6 +43994,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>279100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1756"/>
+  <dimension ref="A1:I1757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62054,6 +62054,41 @@
         <v>279100</v>
       </c>
     </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1757" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>302100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1757"/>
+  <dimension ref="A1:I1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62089,6 +62089,41 @@
         <v>302100</v>
       </c>
     </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1758" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1758"/>
+  <dimension ref="A1:I1759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62124,6 +62124,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1759" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>31100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1759"/>
+  <dimension ref="A1:I1760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62159,6 +62159,41 @@
         <v>31100</v>
       </c>
     </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1760" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>14200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1760"/>
+  <dimension ref="A1:I1761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62194,6 +62194,41 @@
         <v>14200</v>
       </c>
     </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1761" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1761"/>
+  <dimension ref="A1:I1762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62229,6 +62229,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1762" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1762" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1762"/>
+  <dimension ref="A1:I1763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62266,6 +62266,43 @@
         </is>
       </c>
     </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1763" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1763" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1763"/>
+  <dimension ref="A1:I1764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62303,6 +62303,43 @@
         </is>
       </c>
     </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1764" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1764" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1764"/>
+  <dimension ref="A1:I1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62340,6 +62340,43 @@
         </is>
       </c>
     </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1765" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1765" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1765"/>
+  <dimension ref="A1:I1766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62377,6 +62377,43 @@
         </is>
       </c>
     </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1766" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1766" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1766"/>
+  <dimension ref="A1:I1767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62414,6 +62414,43 @@
         </is>
       </c>
     </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1767" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1767" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1767"/>
+  <dimension ref="A1:I1768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62451,6 +62451,41 @@
         </is>
       </c>
     </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1768" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1768"/>
+  <dimension ref="A1:I1769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62486,6 +62486,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1769" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1769" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1769"/>
+  <dimension ref="A1:I1770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62523,6 +62523,41 @@
         </is>
       </c>
     </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1770" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1770"/>
+  <dimension ref="A1:I1771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62558,6 +62558,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E1771" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1771" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2542"/>
+  <dimension ref="A1:I2543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89580,6 +89580,41 @@
         </is>
       </c>
     </row>
+    <row r="2543">
+      <c r="A2543" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2543" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2543" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2543" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2543" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2543"/>
+  <dimension ref="A1:I2544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89615,6 +89615,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="2544">
+      <c r="A2544" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2544" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2544" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2544" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2544" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2544" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2544"/>
+  <dimension ref="A1:I2545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89650,6 +89650,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2545">
+      <c r="A2545" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2545" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2545" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2545" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2545" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2545" t="n">
+        <v>58300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2545"/>
+  <dimension ref="A1:I2546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89685,6 +89685,41 @@
         <v>58300</v>
       </c>
     </row>
+    <row r="2546">
+      <c r="A2546" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2546" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2546" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2546" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2546" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2546" t="n">
+        <v>13100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2546"/>
+  <dimension ref="A1:I2547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89720,6 +89720,41 @@
         <v>13100</v>
       </c>
     </row>
+    <row r="2547">
+      <c r="A2547" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2547" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2547" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2547" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2547" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2547" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2547"/>
+  <dimension ref="A1:I2548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89755,6 +89755,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2548">
+      <c r="A2548" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2548" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2548" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2548" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2548" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2548" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2548"/>
+  <dimension ref="A1:I2549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89792,6 +89792,43 @@
         </is>
       </c>
     </row>
+    <row r="2549">
+      <c r="A2549" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2549" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2549" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2549" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2549" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2549" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2549"/>
+  <dimension ref="A1:I2550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89829,6 +89829,43 @@
         </is>
       </c>
     </row>
+    <row r="2550">
+      <c r="A2550" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2550" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2550" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2550" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2550" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2550" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2550"/>
+  <dimension ref="A1:I2551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89866,6 +89866,41 @@
         </is>
       </c>
     </row>
+    <row r="2551">
+      <c r="A2551" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2551" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2551" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2551" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2551" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2551" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2551"/>
+  <dimension ref="A1:I2552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89901,6 +89901,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2552">
+      <c r="A2552" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2552" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2552" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2552" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2552" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2552" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2552"/>
+  <dimension ref="A1:I2554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89936,6 +89936,78 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="2553">
+      <c r="A2553" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2553" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2553" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2553" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2553" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2553" t="n">
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2554" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2554" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2554" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2554" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2554" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2554" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2554"/>
+  <dimension ref="A1:I2555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90008,6 +90008,41 @@
         </is>
       </c>
     </row>
+    <row r="2555">
+      <c r="A2555" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2555" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2555" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2555" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2555" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2555" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2555" t="n">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2555"/>
+  <dimension ref="A1:I2558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90043,6 +90043,113 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="2556">
+      <c r="A2556" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2556" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2556" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2556" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2556" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2556" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2557" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2557" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2557" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2557" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2557" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2557" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2558" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2558" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2558" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2558" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2558" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2558"/>
+  <dimension ref="A1:I2559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90150,6 +90150,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2559">
+      <c r="A2559" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2559" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2559" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2559" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2559" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2559" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2559"/>
+  <dimension ref="A1:I2560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90187,6 +90187,41 @@
         </is>
       </c>
     </row>
+    <row r="2560">
+      <c r="A2560" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2560" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2560" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2560" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2560" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2560" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7197.xlsx
+++ b/data/7197.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2560"/>
+  <dimension ref="A1:I2563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90222,6 +90222,111 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2561">
+      <c r="A2561" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2561" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2561" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2561" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2561" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2561" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2561" t="n">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2562" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2562" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2562" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2562" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2562" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>GESHEN</t>
+        </is>
+      </c>
+      <c r="E2563" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2563" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2563" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2563" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2563" t="n">
+        <v>69600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
